--- a/sample/样本.xlsx
+++ b/sample/样本.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\05ProgramProject\Python\chinese_keywords\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\05ProgramProject\Python\chinese_keywords\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="202" documentId="A76373AF9825D1F50119E119E7388C210D58D599" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{734F5983-91B3-4D24-92A3-3895ED0AF1A5}"/>
+  <xr:revisionPtr revIDLastSave="225" documentId="A76373AF9825D1F50119E119E7388C210D58D599" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{7C872F8A-628D-47DC-808E-9DD34D47D146}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="56">
   <si>
     <t>互</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>气候变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,7 +434,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -545,6 +557,15 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -860,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:AB60"/>
+  <dimension ref="B4:AB77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="AA57" sqref="AA57"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3009,6 +3030,117 @@
       <c r="Y60" s="40"/>
       <c r="Z60" s="40"/>
     </row>
+    <row r="66" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="24">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="24">
+        <v>4</v>
+      </c>
+      <c r="H66" s="24">
+        <v>4</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="26">
+        <v>0</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="26">
+        <v>1</v>
+      </c>
+      <c r="H68" s="26">
+        <v>1</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="41"/>
+      <c r="C69" s="24">
+        <v>3</v>
+      </c>
+      <c r="D69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="24">
+        <v>3</v>
+      </c>
+      <c r="J69" s="41"/>
+    </row>
+    <row r="70" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="42"/>
+      <c r="C70" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="J70" s="42"/>
+    </row>
+    <row r="71" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="43"/>
+      <c r="C71" s="26">
+        <v>3</v>
+      </c>
+      <c r="D71" s="43"/>
+      <c r="H71" s="43"/>
+      <c r="I71" s="26">
+        <v>3</v>
+      </c>
+      <c r="J71" s="43"/>
+    </row>
+    <row r="72" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="13"/>
+      <c r="D74" s="13"/>
+    </row>
+    <row r="75" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="29"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="29"/>
+    </row>
+    <row r="76" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="20"/>
+      <c r="C76" s="42"/>
+      <c r="D76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="36"/>
+      <c r="C77" s="43"/>
+      <c r="D77" s="36"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
